--- a/softwares/gateway/results-sat-18/TCP/suspicious_TCP.xlsx
+++ b/softwares/gateway/results-sat-18/TCP/suspicious_TCP.xlsx
@@ -424,992 +424,992 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2.51896</t>
+          <t>362.875</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2.57545</t>
+          <t>363.002</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2.51795</t>
+          <t>674.012</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>3.86999</t>
+          <t>638.723</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>3.87016</t>
+          <t>566.171</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3.87411</t>
+          <t>786.627</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>19.1413</t>
+          <t>4667.44</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>19.1356</t>
+          <t>2680.07</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>19.1401</t>
+          <t>3470.72</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>57.2165</t>
+          <t>14092.8</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>57.1893</t>
+          <t>11461.3</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>57.1947</t>
+          <t>11352.9</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4844.16</t>
+          <t>697837</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4952.78</t>
+          <t>698080</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4842.2</t>
+          <t>1.29618e+06</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4837.49</t>
+          <t>798403</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4837.7</t>
+          <t>707714</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4842.64</t>
+          <t>983284</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4785.32</t>
+          <t>1.16686e+06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4783.91</t>
+          <t>670017</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4785.03</t>
+          <t>867679</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4768.04</t>
+          <t>1.1744e+06</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4765.77</t>
+          <t>955110</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4766.23</t>
+          <t>946074</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41.2868</t>
+          <t>2.866e-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>40.3814</t>
+          <t>2.865e-06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41.3035</t>
+          <t>1.543e-06</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.3438</t>
+          <t>2.505e-06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41.342</t>
+          <t>2.826e-06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>41.2998</t>
+          <t>2.034e-06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>41.7945</t>
+          <t>1.714e-06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>41.8068</t>
+          <t>2.985e-06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>41.7971</t>
+          <t>2.305e-06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>41.9459</t>
+          <t>1.703e-06</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>41.9659</t>
+          <t>2.094e-06</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>41.9619</t>
+          <t>2.114e-06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4.80559</t>
+          <t>563.991</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.80038</t>
+          <t>811.232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.79908</t>
+          <t>415.17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.38188</t>
+          <t>466.881</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.38754</t>
+          <t>613.968</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.38905</t>
+          <t>578.453</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36.4848</t>
+          <t>4117.34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>36.4705</t>
+          <t>3696.86</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>36.5003</t>
+          <t>2706.36</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>109.077</t>
+          <t>10322.6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>109.058</t>
+          <t>7509.39</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>109.117</t>
+          <t>6864.99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9241.53</t>
+          <t>1.0846e+06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9231.5</t>
+          <t>1.56006e+06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9229</t>
+          <t>798403</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9227.35</t>
+          <t>583601</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9234.43</t>
+          <t>767460</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9236.32</t>
+          <t>723066</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9121.2</t>
+          <t>1.02934e+06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9117.62</t>
+          <t>924214</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9125.08</t>
+          <t>676590</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9089.79</t>
+          <t>860215</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9088.17</t>
+          <t>625782</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9093.06</t>
+          <t>572082</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21.6414</t>
+          <t>1.844e-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21.665</t>
+          <t>1.282e-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21.6708</t>
+          <t>2.505e-06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.6747</t>
+          <t>3.427e-06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.6581</t>
+          <t>2.606e-06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>21.6537</t>
+          <t>2.766e-06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21.9269</t>
+          <t>1.943e-06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21.9356</t>
+          <t>2.164e-06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21.9176</t>
+          <t>2.956e-06</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22.0027</t>
+          <t>2.325e-06</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>22.0066</t>
+          <t>3.196e-06</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21.9948</t>
+          <t>3.496e-06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7.60268</t>
+          <t>402.321</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.91202</t>
+          <t>359.116</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.1507</t>
+          <t>318.335</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>739.372</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.5685</t>
+          <t>528.751</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>478.183</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>51.9099</t>
+          <t>4201.68</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50.8123</t>
+          <t>3629.76</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>56.0278</t>
+          <t>3232.32</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>117.992</t>
+          <t>6982.83</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>106.248</t>
+          <t>12806.8</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>117.142</t>
+          <t>13230.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14620.5</t>
+          <t>773694</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15215.4</t>
+          <t>690608</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15674.4</t>
+          <t>612182</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>924214</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15710.7</t>
+          <t>660939</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>15549.9</t>
+          <t>597729</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12977.5</t>
+          <t>1.05042e+06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12703.1</t>
+          <t>907441</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14006.9</t>
+          <t>808081</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9832.64</t>
+          <t>581903</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8854.01</t>
+          <t>1.06724e+06</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9761.84</t>
+          <t>1.10254e+06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11.9313</t>
+          <t>2.585e-06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12.0758</t>
+          <t>2.896e-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11.9559</t>
+          <t>3.267e-06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.1317</t>
+          <t>2.164e-06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12.0165</t>
+          <t>3.026e-06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11.9908</t>
+          <t>3.346e-06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12.4132</t>
+          <t>1.904e-06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12.2447</t>
+          <t>2.204e-06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12.2722</t>
+          <t>2.475e-06</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.9169</t>
+          <t>3.437e-06</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12.8971</t>
+          <t>1.874e-06</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12.8894</t>
+          <t>1.814e-06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>174442</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>183739</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>187402</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>181975</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>188788</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>186456</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>161092</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>155546</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>171896</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>127007</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>114191</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>125824</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7.37059</t>
+          <t>373.295</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.02076</t>
+          <t>560.949</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.7121</t>
+          <t>540.541</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.7125</t>
+          <t>532.269</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.4011</t>
+          <t>572.246</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10.3593</t>
+          <t>798.403</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>53.495</t>
+          <t>3271.98</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>51.0089</t>
+          <t>4201.68</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>53.4692</t>
+          <t>3952.57</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>108.311</t>
+          <t>6902.5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>116.767</t>
+          <t>6690.83</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>110.24</t>
+          <t>10195.4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14174.2</t>
+          <t>717875</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13501.5</t>
+          <t>1.07875e+06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14831</t>
+          <t>1.0395e+06</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14640.6</t>
+          <t>665336</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14251.4</t>
+          <t>715308</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12949.2</t>
+          <t>998004</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13373.7</t>
+          <t>817996</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12752.2</t>
+          <t>1.05042e+06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13367.3</t>
+          <t>988142</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>9025.95</t>
+          <t>575209</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9730.55</t>
+          <t>557569</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9186.66</t>
+          <t>849618</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10.4267</t>
+          <t>2.786e-06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10.2761</t>
+          <t>1.854e-06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10.2916</t>
+          <t>1.924e-06</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.5058</t>
+          <t>3.006e-06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10.4209</t>
+          <t>2.796e-06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10.2978</t>
+          <t>2.004e-06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10.6136</t>
+          <t>2.445e-06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.5607</t>
+          <t>1.904e-06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.6589</t>
+          <t>2.024e-06</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11.2419</t>
+          <t>3.477e-06</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11.2164</t>
+          <t>3.587e-06</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11.2478</t>
+          <t>2.354e-06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>147790</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>138743</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>152634</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>153812</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>148512</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>133348</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>141943</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>134672</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>142481</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>101469</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>109142</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>103330</t>
+          <t>2</t>
         </is>
       </c>
     </row>
